--- a/biology/Zoologie/Calamaria_nuchalis/Calamaria_nuchalis.xlsx
+++ b/biology/Zoologie/Calamaria_nuchalis/Calamaria_nuchalis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Calamaria nuchalis  est une espèce de serpents de la famille des Colubridae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Calamaria nuchalis  est une espèce de serpents de la famille des Colubridae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Sulawesi en Indonésie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Sulawesi en Indonésie.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'holotype de Calamaria nuchalis[2] mesure 180 mm dont 15 mm pour la queue. Cette espèce a la face dorsale brun sombre avec de petits points ronds noirs. Sa nuque est jaunâtre avec deux grandes taches noires. Sa face ventrale est blanche, chaque écaille ventrale présentant une tache noire à son extrémité.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'holotype de Calamaria nuchalis mesure 180 mm dont 15 mm pour la queue. Cette espèce a la face dorsale brun sombre avec de petits points ronds noirs. Sa nuque est jaunâtre avec deux grandes taches noires. Sa face ventrale est blanche, chaque écaille ventrale présentant une tache noire à son extrémité.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son nom d'espèce, du latin nuchalis, « nuque », lui a été donné en référence à la coloration de sa nuque[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son nom d'espèce, du latin nuchalis, « nuque », lui a été donné en référence à la coloration de sa nuque.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Boulenger, 1896 : Descriptions of new reptiles and batrachians obtained by Mr. Alfred Everett in Celebes and Jampea. Annals and Magazine of Natural History, ser. 6, vol. 18, p. 62-64 (texte intégral).</t>
         </is>
